--- a/backend/income_details.xlsx
+++ b/backend/income_details.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,13 +416,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>rent</v>
+        <v>profit</v>
       </c>
       <c r="B2">
         <v>20000</v>
       </c>
       <c r="C2" s="1">
-        <v>45790.20847222222</v>
+        <v>45789.20847222222</v>
       </c>
     </row>
     <row r="3">
@@ -460,18 +460,40 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>bussinesincome</v>
+        <v>freelancing</v>
       </c>
       <c r="B6">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="C6" s="1">
-        <v>45778.20847222222</v>
+        <v>45783.20847222222</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>freelacing</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45782.20847222222</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>property profit</v>
+      </c>
+      <c r="B8">
+        <v>50000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45781.20847222222</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
   </ignoredErrors>
 </worksheet>
 </file>